--- a/src/code/interview/datastructures/matrix/matrix.xlsx
+++ b/src/code/interview/datastructures/matrix/matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Regions</t>
   </si>
@@ -30,16 +30,49 @@
     <t>{[0,1]}</t>
   </si>
   <si>
-    <t>{[0,1]; [0, 6]; }</t>
-  </si>
-  <si>
-    <t>{[0,1]; [0, 6]+[0,7]; }</t>
-  </si>
-  <si>
     <t>Biggest region</t>
   </si>
   <si>
-    <t>{[0,1]; [0, 6]+[0,7]; [1,0]}</t>
+    <t>{[0,1]}, {[0, 7] }</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]}, {[0, 7}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]+[2,4]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]+[2,4]+[2,7]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]+[2,4]+[2,7]+[3,3]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]+[2,4]+[2,7]+[3,3]+[3,4]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]+[2,4]+[2,7]+[3,3]+[3,4]+[3,5]}</t>
+  </si>
+  <si>
+    <t>{[0,1]+[1,0]+[1,1]}, {[0, 7},{[1,3]+[1,4]+[1,5]+[1,6]+[2,3]+[2,4]+[2,7]+[3,3]+[3,4]+[3,5]+[3,7]}</t>
   </si>
 </sst>
 </file>
@@ -388,306 +421,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="135.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
         <v>5</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
